--- a/output/frat/conceptnet-local_embedding_search/depth_2/embeddings/frat_3_conceptnet_search_embeddings-top10.xlsx
+++ b/output/frat/conceptnet-local_embedding_search/depth_2/embeddings/frat_3_conceptnet_search_embeddings-top10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\frat\depth_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\frat\conceptnet-local_embedding_search\depth_2\embeddings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745FB768-882F-404A-B3A7-59CA08C19890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004A5A01-802D-4E48-A73B-FFF8DA62B41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1387,6 +1387,8 @@
     <col min="3" max="3" width="27.7265625" customWidth="1"/>
     <col min="4" max="4" width="33.6328125" customWidth="1"/>
     <col min="5" max="5" width="29.81640625" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" customWidth="1"/>
+    <col min="7" max="7" width="43.7265625" customWidth="1"/>
     <col min="8" max="8" width="23.08984375" customWidth="1"/>
     <col min="10" max="10" width="34.453125" customWidth="1"/>
   </cols>

--- a/output/frat/conceptnet-local_embedding_search/depth_2/embeddings/frat_3_conceptnet_search_embeddings-top10.xlsx
+++ b/output/frat/conceptnet-local_embedding_search/depth_2/embeddings/frat_3_conceptnet_search_embeddings-top10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\frat\conceptnet-local_embedding_search\depth_2\embeddings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004A5A01-802D-4E48-A73B-FFF8DA62B41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05017F3F-50CD-4782-AF04-F03389050C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1385,7 +1385,7 @@
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="27.7265625" customWidth="1"/>
-    <col min="4" max="4" width="33.6328125" customWidth="1"/>
+    <col min="4" max="4" width="61.26953125" customWidth="1"/>
     <col min="5" max="5" width="29.81640625" customWidth="1"/>
     <col min="6" max="6" width="27.54296875" customWidth="1"/>
     <col min="7" max="7" width="43.7265625" customWidth="1"/>
